--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACF/15/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACF/15/seed5/result_data_RandomForest.xlsx
@@ -485,7 +485,7 @@
         <v>4.54</v>
       </c>
       <c r="C3" t="n">
-        <v>-12.22089999999999</v>
+        <v>-12.40969999999999</v>
       </c>
       <c r="D3" t="n">
         <v>-6.85</v>
@@ -542,7 +542,7 @@
         <v>-8.59</v>
       </c>
       <c r="E6" t="n">
-        <v>12.33829999999999</v>
+        <v>12.16519999999999</v>
       </c>
     </row>
     <row r="7">
@@ -559,7 +559,7 @@
         <v>-9.31</v>
       </c>
       <c r="E7" t="n">
-        <v>11.77159999999999</v>
+        <v>12.10859999999999</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>7.52</v>
       </c>
       <c r="C8" t="n">
-        <v>-11.76329999999999</v>
+        <v>-12.2724</v>
       </c>
       <c r="D8" t="n">
         <v>-7.09</v>
       </c>
       <c r="E8" t="n">
-        <v>13.8318</v>
+        <v>13.6685</v>
       </c>
     </row>
     <row r="9">
@@ -632,13 +632,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.85220000000002</v>
+        <v>-21.88090000000002</v>
       </c>
       <c r="B12" t="n">
         <v>5.38</v>
       </c>
       <c r="C12" t="n">
-        <v>-12.91020000000001</v>
+        <v>-12.7008</v>
       </c>
       <c r="D12" t="n">
         <v>-10.06</v>
@@ -672,7 +672,7 @@
         <v>8.33</v>
       </c>
       <c r="C14" t="n">
-        <v>-11.7311</v>
+        <v>-11.99859999999999</v>
       </c>
       <c r="D14" t="n">
         <v>-7.97</v>
@@ -763,7 +763,7 @@
         <v>-8.470000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>12.9805</v>
+        <v>12.9715</v>
       </c>
     </row>
     <row r="20">
@@ -797,7 +797,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>12.63099999999999</v>
+        <v>12.67299999999999</v>
       </c>
     </row>
     <row r="22">
@@ -808,7 +808,7 @@
         <v>4.26</v>
       </c>
       <c r="C22" t="n">
-        <v>-10.94079999999999</v>
+        <v>-11.07189999999999</v>
       </c>
       <c r="D22" t="n">
         <v>-5.14</v>
@@ -848,7 +848,7 @@
         <v>-9.24</v>
       </c>
       <c r="E24" t="n">
-        <v>12.67159999999998</v>
+        <v>12.64239999999999</v>
       </c>
     </row>
     <row r="25">
